--- a/LOCNU_facts.xlsx
+++ b/LOCNU_facts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Desktop/Bioinformatics/BCB420/LOCNU/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A210CB-A4B3-3744-95CA-1D287E996198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="380" yWindow="6480" windowWidth="25600" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Short (5-letter code) or gene symbol</t>
   </si>
@@ -67,22 +68,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>Short (5-letter) code from system table</t>
-  </si>
-  <si>
-    <t>Short (5-letter) code from component table or gene symbol</t>
-  </si>
-  <si>
-    <t>Evidence code</t>
-  </si>
-  <si>
-    <t>PMID of primary reference</t>
-  </si>
-  <si>
     <t>SyRO role</t>
-  </si>
-  <si>
-    <t>Brief description of function</t>
   </si>
   <si>
     <t>PINX1</t>
@@ -354,11 +340,38 @@
   <si>
     <t>Found in FC, nucleolus organizer regions(NORs)</t>
   </si>
+  <si>
+    <t>from system table</t>
+  </si>
+  <si>
+    <t>table or gene symbol</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Brief descirption of what functionality the component contributes to the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
+  </si>
+  <si>
+    <t>moltype</t>
+  </si>
+  <si>
+    <t>sym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniProt </t>
+  </si>
+  <si>
+    <t>Brief description of  properties that are  important to the component regardless of its role in the system</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,6 +459,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,120 +742,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -848,261 +864,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6">
         <v>9236775</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>11701125</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6">
         <v>9286697</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
         <v>10373416</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6">
         <v>9426281</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>87</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D19" s="6">
         <v>12045094</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" s="6">
         <v>17174896</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" s="6">
         <v>20531386</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" s="6">
         <v>26726035</v>
       </c>
@@ -1113,206 +1130,233 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/LOCNU_facts.xlsx
+++ b/LOCNU_facts.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Desktop/Bioinformatics/BCB420/LOCNU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A210CB-A4B3-3744-95CA-1D287E996198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F9820-4940-FE47-80F0-980B329C21F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="6480" windowWidth="25600" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="25600" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="System" sheetId="1" r:id="rId1"/>
-    <sheet name="SystemComponent" sheetId="2" r:id="rId2"/>
+    <sheet name="system" sheetId="1" r:id="rId1"/>
+    <sheet name="systemComponent" sheetId="2" r:id="rId2"/>
     <sheet name="component" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/LOCNU_facts.xlsx
+++ b/LOCNU_facts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Desktop/Bioinformatics/BCB420/LOCNU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F9820-4940-FE47-80F0-980B329C21F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5184AA-8F43-8945-BBCE-95C89A59270E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="25600" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
   <si>
     <t>Short (5-letter code) or gene symbol</t>
   </si>
@@ -367,12 +367,33 @@
   <si>
     <t>Brief description of  properties that are  important to the component regardless of its role in the system</t>
   </si>
+  <si>
+    <t>DNA-directed RNA polymerase I subunit RPA2</t>
+  </si>
+  <si>
+    <t>DNA-directed RNA polymerase I subunit RPA3</t>
+  </si>
+  <si>
+    <t>DNA-directed RNA polymerase I subunit RPA4</t>
+  </si>
+  <si>
+    <t>DNA-directed RNA polymerase I subunit RPA5</t>
+  </si>
+  <si>
+    <t>DNA-directed RNA polymerase I subunit RPA6</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>protein localization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +435,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -790,7 +820,9 @@
       <c r="B3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="D3" s="9" t="s">
         <v>91</v>
       </c>
@@ -853,6 +885,9 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>78</v>
@@ -867,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -927,6 +962,9 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
       <c r="D3" s="6">
         <v>9236775</v>
       </c>
@@ -941,6 +979,9 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
       <c r="D4" s="7">
         <v>11701125</v>
       </c>
@@ -955,6 +996,9 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="F5" t="s">
         <v>24</v>
@@ -967,6 +1011,9 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="6">
         <v>9286697</v>
       </c>
@@ -981,6 +1028,9 @@
       <c r="B7" t="s">
         <v>31</v>
       </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
       <c r="D7" s="7">
         <v>10373416</v>
       </c>
@@ -992,6 +1042,9 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" s="6">
         <v>9426281</v>
       </c>
@@ -1003,6 +1056,9 @@
       <c r="B9" t="s">
         <v>71</v>
       </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="F9" t="s">
         <v>84</v>
@@ -1015,6 +1071,9 @@
       <c r="B10" t="s">
         <v>72</v>
       </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="F10" t="s">
         <v>95</v>
@@ -1027,6 +1086,9 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="F11" t="s">
         <v>74</v>
@@ -1039,14 +1101,23 @@
       <c r="B12" t="s">
         <v>70</v>
       </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="F12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
       <c r="B13" t="s">
         <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" t="s">
@@ -1060,6 +1131,9 @@
       <c r="B14" t="s">
         <v>79</v>
       </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="F14" t="s">
         <v>80</v>
@@ -1072,36 +1146,63 @@
       <c r="B15" t="s">
         <v>81</v>
       </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
       <c r="B16" t="s">
         <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
       <c r="B17" t="s">
         <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
       <c r="D19" s="6">
         <v>12045094</v>
       </c>
@@ -1109,17 +1210,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D20" s="6">
         <v>17174896</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D21" s="6">
         <v>20531386</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22" s="6">
         <v>26726035</v>
       </c>
@@ -1134,7 +1235,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1214,26 +1315,41 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1253,41 +1369,65 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>92</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1306,6 +1446,9 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
